--- a/base_file.xlsx
+++ b/base_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Python Projects\CSGO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Python Projects\CS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB29006-A557-45F9-9EAB-371037F319EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5AD272-120A-41DB-9473-2653F968C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="2085" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF65FFAB"/>
@@ -206,6 +206,71 @@
     <dxf>
       <font>
         <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FFAB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8B8B"/>
       </font>
     </dxf>
     <dxf>
@@ -242,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,7 +608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,55 +689,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$F2 &lt; $E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>$F2&gt; $E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$I2&gt;=$F2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>$I2&lt;$F2</formula>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I2&gt;=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I2&lt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$J2="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$J2="y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="8">
       <formula>LEN(TRIM(L3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
